--- a/dtpu_configurations/only_integer32/50mhz/mxu_6x6/utilization.xlsx
+++ b/dtpu_configurations/only_integer32/50mhz/mxu_6x6/utilization.xlsx
@@ -154,19 +154,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>18.746240615844727</v>
+        <v>26.15225601196289</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>5.528735637664795</v>
+        <v>6.0804595947265625</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>12.565790176391602</v>
+        <v>18.203947067260742</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>52.142860412597656</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>13.636363983154297</v>
+        <v>49.090911865234375</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>8.0</v>
